--- a/Jogos_do_Dia/2023-01-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,10 +632,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.22</v>
+        <v>3.05</v>
       </c>
       <c r="G2" t="n">
-        <v>3.53</v>
+        <v>3.35</v>
       </c>
       <c r="H2" t="n">
         <v>2.24</v>
@@ -653,10 +653,10 @@
         <v>3.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="N2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -716,7 +716,7 @@
         <v>2.63</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="V3" t="n">
         <v>0.8</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="I4" t="n">
         <v>1.03</v>
@@ -873,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="N4" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="O4" t="n">
         <v>1.38</v>
@@ -924,7 +924,7 @@
         <v>4.32</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE4" t="n">
         <v>1.57</v>
@@ -936,7 +936,7 @@
         <v>2.4</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5">
@@ -965,10 +965,10 @@
         <v>1.49</v>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="I5" t="n">
         <v>1.02</v>
@@ -983,10 +983,10 @@
         <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="N5" t="n">
-        <v>2.43</v>
+        <v>2.12</v>
       </c>
       <c r="O5" t="n">
         <v>1.27</v>
@@ -1034,7 +1034,7 @@
         <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE5" t="n">
         <v>1.5</v>
@@ -1046,7 +1046,7 @@
         <v>2.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="V6" t="n">
         <v>2.6</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.78</v>
+        <v>2.95</v>
       </c>
       <c r="G7" t="n">
-        <v>3.31</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.51</v>
+        <v>2.46</v>
       </c>
       <c r="I7" t="n">
         <v>1.07</v>
@@ -1203,10 +1203,10 @@
         <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="N7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG7" t="n">
         <v>2</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.82</v>
+        <v>4.3</v>
       </c>
       <c r="H8" t="n">
         <v>1.58</v>
@@ -1316,7 +1316,7 @@
         <v>1.73</v>
       </c>
       <c r="N8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.69</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>3.88</v>
+        <v>3.8</v>
       </c>
       <c r="H9" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="I9" t="n">
         <v>1.06</v>
@@ -1423,10 +1423,10 @@
         <v>3.52</v>
       </c>
       <c r="M9" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="N9" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="O9" t="n">
         <v>1.38</v>
@@ -1474,19 +1474,19 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-01-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="G2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="I2" t="n">
         <v>1.04</v>
@@ -653,10 +653,10 @@
         <v>3.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="I3" t="n">
         <v>1.03</v>
@@ -763,10 +763,10 @@
         <v>3.95</v>
       </c>
       <c r="M3" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
         <v>1.37</v>
@@ -805,28 +805,28 @@
         <v>3.18</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="I4" t="n">
         <v>1.03</v>
@@ -873,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="N4" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="O4" t="n">
         <v>1.38</v>
@@ -965,10 +965,10 @@
         <v>1.49</v>
       </c>
       <c r="G5" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="I5" t="n">
         <v>1.02</v>
@@ -983,10 +983,10 @@
         <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="N5" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="O5" t="n">
         <v>1.27</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="G6" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I6" t="n">
         <v>1.01</v>
@@ -1093,10 +1093,10 @@
         <v>3.8</v>
       </c>
       <c r="M6" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="N6" t="n">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="O6" t="n">
         <v>1.34</v>
@@ -1135,28 +1135,28 @@
         <v>2.47</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H7" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="I7" t="n">
         <v>1.07</v>
@@ -1203,10 +1203,10 @@
         <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1245,13 +1245,13 @@
         <v>3.16</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1313,10 +1313,10 @@
         <v>3.7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="N8" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="H9" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="I9" t="n">
         <v>1.06</v>
@@ -1423,10 +1423,10 @@
         <v>3.52</v>
       </c>
       <c r="M9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.38</v>
@@ -1465,13 +1465,13 @@
         <v>3.35</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AD9" t="n">
         <v>1.22</v>
